--- a/data_year/zb/卫生/卫生人员.xlsx
+++ b/data_year/zb/卫生/卫生人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,779 +488,473 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.9357</v>
+        <v>109.1863</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7533</v>
+        <v>29.0161</v>
       </c>
       <c r="D2" t="n">
-        <v>691.0383</v>
+        <v>820.7501999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>449.0803</v>
+        <v>587.6158</v>
       </c>
       <c r="F2" t="n">
-        <v>51.5901</v>
+        <v>57.8772</v>
       </c>
       <c r="G2" t="n">
-        <v>207.5843</v>
+        <v>241.3259</v>
       </c>
       <c r="H2" t="n">
-        <v>160.3266</v>
+        <v>197.284</v>
       </c>
       <c r="I2" t="n">
-        <v>126.6838</v>
+        <v>204.8071</v>
       </c>
       <c r="J2" t="n">
-        <v>42.6789</v>
+        <v>37.0548</v>
       </c>
       <c r="K2" t="n">
-        <v>41.4408</v>
+        <v>35.3916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.0595</v>
+        <v>112.6443</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7961</v>
+        <v>30.5981</v>
       </c>
       <c r="D3" t="n">
-        <v>687.5</v>
+        <v>861.604</v>
       </c>
       <c r="E3" t="n">
-        <v>450.8</v>
+        <v>620.2858</v>
       </c>
       <c r="F3" t="n">
-        <v>50.5514</v>
+        <v>60.5873</v>
       </c>
       <c r="G3" t="n">
-        <v>210</v>
+        <v>246.6094</v>
       </c>
       <c r="H3" t="n">
-        <v>163.7</v>
+        <v>202.0154</v>
       </c>
       <c r="I3" t="n">
-        <v>128.7</v>
+        <v>224.402</v>
       </c>
       <c r="J3" t="n">
-        <v>41.2757</v>
+        <v>37.4885</v>
       </c>
       <c r="K3" t="n">
-        <v>40.4087</v>
+        <v>36.3993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.0595</v>
+        <v>109.4419</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9962</v>
+        <v>31.9117</v>
       </c>
       <c r="D4" t="n">
-        <v>652.9</v>
+        <v>911.5705</v>
       </c>
       <c r="E4" t="n">
-        <v>427</v>
+        <v>667.5549</v>
       </c>
       <c r="F4" t="n">
-        <v>45.571</v>
+        <v>65.3623</v>
       </c>
       <c r="G4" t="n">
-        <v>184.4</v>
+        <v>261.6064</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4</v>
+        <v>213.8836</v>
       </c>
       <c r="I4" t="n">
-        <v>124.7</v>
+        <v>249.6599</v>
       </c>
       <c r="J4" t="n">
-        <v>33.2628</v>
+        <v>37.2997</v>
       </c>
       <c r="K4" t="n">
-        <v>35.7659</v>
+        <v>37.7398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.7778</v>
+        <v>108.1063</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9331</v>
+        <v>35.9819</v>
       </c>
       <c r="D5" t="n">
-        <v>621.7</v>
+        <v>979.0483</v>
       </c>
       <c r="E5" t="n">
-        <v>438.1</v>
+        <v>721.0578</v>
       </c>
       <c r="F5" t="n">
-        <v>45.0292</v>
+        <v>71.8052</v>
       </c>
       <c r="G5" t="n">
-        <v>194.2</v>
+        <v>279.4754</v>
       </c>
       <c r="H5" t="n">
-        <v>153.4</v>
+        <v>228.5794</v>
       </c>
       <c r="I5" t="n">
-        <v>126.6</v>
+        <v>278.3121</v>
       </c>
       <c r="J5" t="n">
-        <v>31.8692</v>
+        <v>42.0971</v>
       </c>
       <c r="K5" t="n">
-        <v>35.7378</v>
+        <v>39.5578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.3075</v>
+        <v>105.8182</v>
       </c>
       <c r="C6" t="n">
-        <v>20.9422</v>
+        <v>37.974</v>
       </c>
       <c r="D6" t="n">
-        <v>633.3</v>
+        <v>1023.4213</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6</v>
+        <v>758.979</v>
       </c>
       <c r="F6" t="n">
-        <v>43.8664</v>
+        <v>75.52509999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>199.9</v>
+        <v>289.2518</v>
       </c>
       <c r="H6" t="n">
-        <v>158.2</v>
+        <v>237.4917</v>
       </c>
       <c r="I6" t="n">
-        <v>130.8</v>
+        <v>300.4144</v>
       </c>
       <c r="J6" t="n">
-        <v>31.5595</v>
+        <v>45.125</v>
       </c>
       <c r="K6" t="n">
-        <v>35.5451</v>
+        <v>40.9595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.6532</v>
+        <v>103.1525</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5697</v>
+        <v>39.9712</v>
       </c>
       <c r="D7" t="n">
-        <v>644.7246</v>
+        <v>1069.3881</v>
       </c>
       <c r="E7" t="n">
-        <v>456.405</v>
+        <v>800.7537</v>
       </c>
       <c r="F7" t="n">
-        <v>42.8141</v>
+        <v>78.2487</v>
       </c>
       <c r="G7" t="n">
-        <v>204.2135</v>
+        <v>303.9135</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2684</v>
+        <v>250.8408</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9589</v>
+        <v>324.1469</v>
       </c>
       <c r="J7" t="n">
-        <v>31.2826</v>
+        <v>47.262</v>
       </c>
       <c r="K7" t="n">
-        <v>34.9533</v>
+        <v>42.3294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.74590000000001</v>
+        <v>100.0324</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5466</v>
+        <v>42.6171</v>
       </c>
       <c r="D8" t="n">
-        <v>668.1</v>
+        <v>1117.2945</v>
       </c>
       <c r="E8" t="n">
-        <v>472.8</v>
+        <v>845.4403</v>
       </c>
       <c r="F8" t="n">
-        <v>43.6204</v>
+        <v>80.8849</v>
       </c>
       <c r="G8" t="n">
-        <v>209.9</v>
+        <v>319.1005</v>
       </c>
       <c r="H8" t="n">
-        <v>167.8</v>
+        <v>265.1398</v>
       </c>
       <c r="I8" t="n">
-        <v>142.6</v>
+        <v>350.7166</v>
       </c>
       <c r="J8" t="n">
-        <v>32.3705</v>
+        <v>48.3198</v>
       </c>
       <c r="K8" t="n">
-        <v>35.3565</v>
+        <v>43.9246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.17610000000001</v>
+        <v>96.86109999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>24.346</v>
+        <v>45.148</v>
       </c>
       <c r="D9" t="n">
-        <v>696.4</v>
+        <v>1174.8972</v>
       </c>
       <c r="E9" t="n">
-        <v>491.3</v>
+        <v>898.823</v>
       </c>
       <c r="F9" t="n">
-        <v>51.9413</v>
+        <v>83.1558</v>
       </c>
       <c r="G9" t="n">
-        <v>212.3</v>
+        <v>339.0034</v>
       </c>
       <c r="H9" t="n">
-        <v>171.5</v>
+        <v>282.8999</v>
       </c>
       <c r="I9" t="n">
-        <v>155.9</v>
+        <v>380.4021</v>
       </c>
       <c r="J9" t="n">
-        <v>35.6569</v>
+        <v>50.9093</v>
       </c>
       <c r="K9" t="n">
-        <v>32.5212</v>
+        <v>45.2968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.8313</v>
+        <v>90.7098</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5149</v>
+        <v>47.6569</v>
       </c>
       <c r="D10" t="n">
-        <v>725.2</v>
+        <v>1230.0325</v>
       </c>
       <c r="E10" t="n">
-        <v>517.4</v>
+        <v>952.9179</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7009</v>
+        <v>85.8434</v>
       </c>
       <c r="G10" t="n">
-        <v>220.2</v>
+        <v>360.7156</v>
       </c>
       <c r="H10" t="n">
-        <v>179.2</v>
+        <v>301.0376</v>
       </c>
       <c r="I10" t="n">
-        <v>167.8</v>
+        <v>409.863</v>
       </c>
       <c r="J10" t="n">
-        <v>35.6854</v>
+        <v>52.9045</v>
       </c>
       <c r="K10" t="n">
-        <v>33.0525</v>
+        <v>46.7685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.0991</v>
+        <v>84.2302</v>
       </c>
       <c r="C11" t="n">
-        <v>27.5006</v>
+        <v>50.3947</v>
       </c>
       <c r="D11" t="n">
-        <v>778.1</v>
+        <v>1292.8335</v>
       </c>
       <c r="E11" t="n">
-        <v>553.5</v>
+        <v>1015.401</v>
       </c>
       <c r="F11" t="n">
-        <v>55.7662</v>
+        <v>88.43259999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>232.9</v>
+        <v>386.6916</v>
       </c>
       <c r="H11" t="n">
-        <v>190.5</v>
+        <v>321.0515</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5</v>
+        <v>444.5047</v>
       </c>
       <c r="J11" t="n">
-        <v>36.2665</v>
+        <v>54.375</v>
       </c>
       <c r="K11" t="n">
-        <v>34.191</v>
+        <v>48.342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109.1863</v>
+        <v>79.551</v>
       </c>
       <c r="C12" t="n">
-        <v>29.0161</v>
+        <v>52.9601</v>
       </c>
       <c r="D12" t="n">
-        <v>820.7501999999999</v>
+        <v>1347.4992</v>
       </c>
       <c r="E12" t="n">
-        <v>587.6158</v>
+        <v>1067.8019</v>
       </c>
       <c r="F12" t="n">
-        <v>57.8772</v>
+        <v>91.0705</v>
       </c>
       <c r="G12" t="n">
-        <v>241.3259</v>
+        <v>408.5689</v>
       </c>
       <c r="H12" t="n">
-        <v>197.284</v>
+        <v>340.1672</v>
       </c>
       <c r="I12" t="n">
-        <v>204.8071</v>
+        <v>470.8717</v>
       </c>
       <c r="J12" t="n">
-        <v>37.0548</v>
+        <v>56.1157</v>
       </c>
       <c r="K12" t="n">
-        <v>35.3916</v>
+        <v>49.6793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.6443</v>
+        <v>69.67489999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>30.5981</v>
+        <v>59.9026</v>
       </c>
       <c r="D13" t="n">
-        <v>861.604</v>
+        <v>1398.5363</v>
       </c>
       <c r="E13" t="n">
-        <v>620.2858</v>
+        <v>1124.4217</v>
       </c>
       <c r="F13" t="n">
-        <v>60.5873</v>
+        <v>98.5359</v>
       </c>
       <c r="G13" t="n">
-        <v>246.6094</v>
+        <v>428.7604</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0154</v>
+        <v>359.0846</v>
       </c>
       <c r="I13" t="n">
-        <v>224.402</v>
+        <v>501.9422</v>
       </c>
       <c r="J13" t="n">
-        <v>37.4885</v>
+        <v>46.0012</v>
       </c>
       <c r="K13" t="n">
-        <v>36.3993</v>
+        <v>52.0865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>109.4419</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.9117</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>911.5705</v>
+        <v>1441.1</v>
       </c>
       <c r="E14" t="n">
-        <v>667.5549</v>
-      </c>
-      <c r="F14" t="n">
-        <v>65.3623</v>
-      </c>
+        <v>1165.8</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>261.6064</v>
+        <v>443.5</v>
       </c>
       <c r="H14" t="n">
-        <v>213.8836</v>
+        <v>372.2</v>
       </c>
       <c r="I14" t="n">
-        <v>249.6599</v>
-      </c>
-      <c r="J14" t="n">
-        <v>37.2997</v>
-      </c>
-      <c r="K14" t="n">
-        <v>37.7398</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>108.1063</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.9819</v>
-      </c>
-      <c r="D15" t="n">
-        <v>979.0483</v>
-      </c>
-      <c r="E15" t="n">
-        <v>721.0578</v>
-      </c>
-      <c r="F15" t="n">
-        <v>71.8052</v>
-      </c>
-      <c r="G15" t="n">
-        <v>279.4754</v>
-      </c>
-      <c r="H15" t="n">
-        <v>228.5794</v>
-      </c>
-      <c r="I15" t="n">
-        <v>278.3121</v>
-      </c>
-      <c r="J15" t="n">
-        <v>42.0971</v>
-      </c>
-      <c r="K15" t="n">
-        <v>39.5578</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>105.8182</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37.974</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1023.4213</v>
-      </c>
-      <c r="E16" t="n">
-        <v>758.979</v>
-      </c>
-      <c r="F16" t="n">
-        <v>75.52509999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>289.2518</v>
-      </c>
-      <c r="H16" t="n">
-        <v>237.4917</v>
-      </c>
-      <c r="I16" t="n">
-        <v>300.4144</v>
-      </c>
-      <c r="J16" t="n">
-        <v>45.125</v>
-      </c>
-      <c r="K16" t="n">
-        <v>40.9595</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>103.1525</v>
-      </c>
-      <c r="C17" t="n">
-        <v>39.9712</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1069.3881</v>
-      </c>
-      <c r="E17" t="n">
-        <v>800.7537</v>
-      </c>
-      <c r="F17" t="n">
-        <v>78.2487</v>
-      </c>
-      <c r="G17" t="n">
-        <v>303.9135</v>
-      </c>
-      <c r="H17" t="n">
-        <v>250.8408</v>
-      </c>
-      <c r="I17" t="n">
-        <v>324.1469</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47.262</v>
-      </c>
-      <c r="K17" t="n">
-        <v>42.3294</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>100.0324</v>
-      </c>
-      <c r="C18" t="n">
-        <v>42.6171</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1117.2945</v>
-      </c>
-      <c r="E18" t="n">
-        <v>845.4403</v>
-      </c>
-      <c r="F18" t="n">
-        <v>80.8849</v>
-      </c>
-      <c r="G18" t="n">
-        <v>319.1005</v>
-      </c>
-      <c r="H18" t="n">
-        <v>265.1398</v>
-      </c>
-      <c r="I18" t="n">
-        <v>350.7166</v>
-      </c>
-      <c r="J18" t="n">
-        <v>48.3198</v>
-      </c>
-      <c r="K18" t="n">
-        <v>43.9246</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>96.86109999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45.148</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1174.8972</v>
-      </c>
-      <c r="E19" t="n">
-        <v>898.823</v>
-      </c>
-      <c r="F19" t="n">
-        <v>83.1558</v>
-      </c>
-      <c r="G19" t="n">
-        <v>339.0034</v>
-      </c>
-      <c r="H19" t="n">
-        <v>282.8999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>380.4021</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50.9093</v>
-      </c>
-      <c r="K19" t="n">
-        <v>45.2968</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>90.7098</v>
-      </c>
-      <c r="C20" t="n">
-        <v>47.6569</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1230.0325</v>
-      </c>
-      <c r="E20" t="n">
-        <v>952.9179</v>
-      </c>
-      <c r="F20" t="n">
-        <v>85.8434</v>
-      </c>
-      <c r="G20" t="n">
-        <v>360.7156</v>
-      </c>
-      <c r="H20" t="n">
-        <v>301.0376</v>
-      </c>
-      <c r="I20" t="n">
-        <v>409.863</v>
-      </c>
-      <c r="J20" t="n">
-        <v>52.9045</v>
-      </c>
-      <c r="K20" t="n">
-        <v>46.7685</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>84.2302</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50.3947</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1292.8335</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1015.401</v>
-      </c>
-      <c r="F21" t="n">
-        <v>88.43259999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>386.6916</v>
-      </c>
-      <c r="H21" t="n">
-        <v>321.0515</v>
-      </c>
-      <c r="I21" t="n">
-        <v>444.5047</v>
-      </c>
-      <c r="J21" t="n">
-        <v>54.375</v>
-      </c>
-      <c r="K21" t="n">
-        <v>48.342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>79.551</v>
-      </c>
-      <c r="C22" t="n">
-        <v>52.9601</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1347.4992</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1067.8019</v>
-      </c>
-      <c r="F22" t="n">
-        <v>91.0705</v>
-      </c>
-      <c r="G22" t="n">
-        <v>408.5689</v>
-      </c>
-      <c r="H22" t="n">
-        <v>340.1672</v>
-      </c>
-      <c r="I22" t="n">
-        <v>470.8717</v>
-      </c>
-      <c r="J22" t="n">
-        <v>56.1157</v>
-      </c>
-      <c r="K22" t="n">
-        <v>49.6793</v>
-      </c>
+        <v>522.4</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
